--- a/4.SUBMIT_PLACE/4.5 MINH_DOAN/TEST/BSS_TestCases_ManageCategories.xlsx
+++ b/4.SUBMIT_PLACE/4.5 MINH_DOAN/TEST/BSS_TestCases_ManageCategories.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="20115" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="4" r:id="rId1"/>
@@ -132,9 +132,6 @@
   </si>
   <si>
     <t>User clicks "Cancel" button</t>
-  </si>
-  <si>
-    <t>22/02/2017</t>
   </si>
   <si>
     <t>Content Admin, System Admin, Editor, Education Staff, User: View Categories in Homepage</t>
@@ -810,6 +807,9 @@
   </si>
   <si>
     <t>Sytem shows Error page.</t>
+  </si>
+  <si>
+    <t>22/02/2017</t>
   </si>
 </sst>
 </file>
@@ -1466,6 +1466,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1487,29 +1493,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1815,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1830,12 +1830,12 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="11" t="s">
@@ -1843,10 +1843,10 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="10" t="s">
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1919,10 +1919,10 @@
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="76"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="78"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1952,7 +1952,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -1975,59 +1975,59 @@
       <c r="B2" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
     </row>
     <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
     </row>
     <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
     </row>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="82"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
     </row>
     <row r="10" spans="1:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
@@ -2056,48 +2056,48 @@
         <v>1</v>
       </c>
       <c r="B12" s="55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="61" t="s">
+      <c r="D12" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="E12" s="50" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>2</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>49</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>3</v>
       </c>
-      <c r="B14" s="81"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>52</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2105,76 +2105,76 @@
         <v>4</v>
       </c>
       <c r="B15" s="84" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="62" t="s">
+      <c r="D15" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="54" t="s">
-        <v>63</v>
-      </c>
       <c r="E15" s="63" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="27">
         <v>5</v>
       </c>
-      <c r="B16" s="80"/>
+      <c r="B16" s="85"/>
       <c r="C16" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
         <v>6</v>
       </c>
-      <c r="B17" s="80"/>
+      <c r="B17" s="85"/>
       <c r="C17" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
         <v>7</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="85"/>
       <c r="C18" s="26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>8</v>
       </c>
-      <c r="B19" s="81"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.25">
@@ -2182,76 +2182,76 @@
         <v>9</v>
       </c>
       <c r="B20" s="84" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="62" t="s">
-        <v>92</v>
-      </c>
       <c r="D20" s="54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" s="63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="27">
         <v>10</v>
       </c>
-      <c r="B21" s="80"/>
+      <c r="B21" s="85"/>
       <c r="C21" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A22" s="27">
         <v>11</v>
       </c>
-      <c r="B22" s="80"/>
+      <c r="B22" s="85"/>
       <c r="C22" s="26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="27">
         <v>12</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="85"/>
       <c r="C23" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>13</v>
       </c>
-      <c r="B24" s="81"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2259,247 +2259,247 @@
         <v>14</v>
       </c>
       <c r="B25" s="84" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="C25" s="62" t="s">
+      <c r="D25" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="D25" s="54" t="s">
-        <v>133</v>
-      </c>
       <c r="E25" s="63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>15</v>
       </c>
-      <c r="B26" s="81"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D26" s="17" t="s">
         <v>134</v>
       </c>
-      <c r="D26" s="17" t="s">
-        <v>135</v>
-      </c>
       <c r="E26" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="58"/>
       <c r="B27" s="69"/>
-      <c r="C27" s="85"/>
+      <c r="C27" s="72"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
     </row>
     <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="58"/>
       <c r="B28" s="69"/>
-      <c r="C28" s="85"/>
+      <c r="C28" s="72"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="58"/>
       <c r="B29" s="69"/>
-      <c r="C29" s="85"/>
+      <c r="C29" s="72"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="58"/>
       <c r="B30" s="69"/>
-      <c r="C30" s="85"/>
+      <c r="C30" s="72"/>
       <c r="D30" s="14"/>
       <c r="E30" s="14"/>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="58"/>
       <c r="B31" s="69"/>
-      <c r="C31" s="85"/>
+      <c r="C31" s="72"/>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="58"/>
       <c r="B32" s="69"/>
-      <c r="C32" s="85"/>
+      <c r="C32" s="72"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="58"/>
       <c r="B33" s="69"/>
-      <c r="C33" s="85"/>
+      <c r="C33" s="72"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="58"/>
       <c r="B34" s="69"/>
-      <c r="C34" s="85"/>
+      <c r="C34" s="72"/>
       <c r="D34" s="14"/>
       <c r="E34" s="14"/>
     </row>
     <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="58"/>
       <c r="B35" s="69"/>
-      <c r="C35" s="85"/>
+      <c r="C35" s="72"/>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
     </row>
     <row r="36" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="58"/>
       <c r="B36" s="69"/>
-      <c r="C36" s="85"/>
+      <c r="C36" s="72"/>
       <c r="D36" s="14"/>
       <c r="E36" s="14"/>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="58"/>
       <c r="B37" s="69"/>
-      <c r="C37" s="85"/>
+      <c r="C37" s="72"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="58"/>
       <c r="B38" s="69"/>
-      <c r="C38" s="85"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="14"/>
       <c r="E38" s="14"/>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="58"/>
       <c r="B39" s="69"/>
-      <c r="C39" s="85"/>
+      <c r="C39" s="72"/>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="58"/>
       <c r="B40" s="69"/>
-      <c r="C40" s="85"/>
+      <c r="C40" s="72"/>
       <c r="D40" s="14"/>
       <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="58"/>
       <c r="B41" s="69"/>
-      <c r="C41" s="85"/>
+      <c r="C41" s="72"/>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="58"/>
       <c r="B42" s="69"/>
-      <c r="C42" s="85"/>
+      <c r="C42" s="72"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="58"/>
       <c r="B43" s="69"/>
-      <c r="C43" s="85"/>
+      <c r="C43" s="72"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="58"/>
       <c r="B44" s="69"/>
-      <c r="C44" s="85"/>
+      <c r="C44" s="72"/>
       <c r="D44" s="14"/>
       <c r="E44" s="14"/>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="58"/>
       <c r="B45" s="69"/>
-      <c r="C45" s="85"/>
+      <c r="C45" s="72"/>
       <c r="D45" s="14"/>
       <c r="E45" s="14"/>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="58"/>
       <c r="B46" s="69"/>
-      <c r="C46" s="85"/>
+      <c r="C46" s="72"/>
       <c r="D46" s="14"/>
       <c r="E46" s="14"/>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="58"/>
       <c r="B47" s="69"/>
-      <c r="C47" s="85"/>
+      <c r="C47" s="72"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="58"/>
       <c r="B48" s="69"/>
-      <c r="C48" s="85"/>
+      <c r="C48" s="72"/>
       <c r="D48" s="14"/>
       <c r="E48" s="14"/>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="58"/>
       <c r="B49" s="69"/>
-      <c r="C49" s="85"/>
+      <c r="C49" s="72"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="58"/>
       <c r="B50" s="69"/>
-      <c r="C50" s="85"/>
+      <c r="C50" s="72"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="58"/>
       <c r="B51" s="69"/>
-      <c r="C51" s="85"/>
+      <c r="C51" s="72"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
     </row>
     <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="58"/>
       <c r="B52" s="69"/>
-      <c r="C52" s="85"/>
+      <c r="C52" s="72"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="58"/>
       <c r="B53" s="69"/>
-      <c r="C53" s="85"/>
+      <c r="C53" s="72"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="58"/>
       <c r="B54" s="69"/>
-      <c r="C54" s="85"/>
+      <c r="C54" s="72"/>
       <c r="D54" s="14"/>
       <c r="E54" s="14"/>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="58"/>
       <c r="B55" s="69"/>
-      <c r="C55" s="85"/>
+      <c r="C55" s="72"/>
       <c r="D55" s="14"/>
       <c r="E55" s="14"/>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="58"/>
       <c r="B56" s="69"/>
-      <c r="C56" s="85"/>
+      <c r="C56" s="72"/>
       <c r="D56" s="14"/>
       <c r="E56" s="14"/>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="58"/>
       <c r="B57" s="69"/>
-      <c r="C57" s="85"/>
+      <c r="C57" s="72"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
     </row>
@@ -2619,23 +2619,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="D3" s="46" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" s="46" t="s">
-        <v>44</v>
       </c>
       <c r="E3" s="46"/>
       <c r="F3" s="38">
         <v>1</v>
       </c>
       <c r="G3" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="45" t="s">
         <v>45</v>
-      </c>
-      <c r="H3" s="45" t="s">
-        <v>46</v>
       </c>
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
@@ -2648,23 +2648,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="46" t="s">
-        <v>55</v>
-      </c>
       <c r="D4" s="46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="68">
         <v>1</v>
       </c>
       <c r="G4" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="45" t="s">
         <v>56</v>
-      </c>
-      <c r="H4" s="45" t="s">
-        <v>57</v>
       </c>
       <c r="I4" s="45"/>
       <c r="J4" s="45"/>
@@ -2677,23 +2677,23 @@
         <v>3</v>
       </c>
       <c r="B5" s="47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="46" t="s">
-        <v>59</v>
-      </c>
       <c r="D5" s="46" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E5" s="67"/>
       <c r="F5" s="68">
         <v>1</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H5" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I5" s="45"/>
       <c r="J5" s="45"/>
@@ -2921,10 +2921,10 @@
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
-      <c r="L20" s="83"/>
-      <c r="M20" s="83"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="86"/>
+      <c r="M20" s="86"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
@@ -2936,10 +2936,10 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
@@ -2951,10 +2951,10 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
@@ -2966,10 +2966,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
@@ -2981,10 +2981,10 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
@@ -2996,10 +2996,10 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
@@ -3011,10 +3011,10 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
@@ -3026,10 +3026,10 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
@@ -3041,10 +3041,10 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
@@ -3056,10 +3056,10 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
@@ -3071,10 +3071,10 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
@@ -3086,10 +3086,10 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
@@ -3101,10 +3101,10 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
@@ -3116,10 +3116,10 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
@@ -3131,10 +3131,10 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
     </row>
     <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
@@ -3146,10 +3146,10 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
     </row>
     <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
@@ -3161,10 +3161,10 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
     </row>
     <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
@@ -3176,10 +3176,10 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
     </row>
     <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
@@ -3191,10 +3191,10 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
@@ -3206,10 +3206,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
     </row>
     <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
@@ -3221,10 +3221,10 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
@@ -3236,10 +3236,10 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="37"/>
@@ -3251,10 +3251,10 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
     </row>
     <row r="43" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A43" s="37"/>
@@ -3266,10 +3266,10 @@
       <c r="G43" s="14"/>
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
-      <c r="J43" s="83"/>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="83"/>
+      <c r="J43" s="86"/>
+      <c r="K43" s="86"/>
+      <c r="L43" s="86"/>
+      <c r="M43" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="48">
@@ -3407,25 +3407,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="46" t="s">
         <v>78</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>79</v>
       </c>
       <c r="F3" s="38">
         <v>1</v>
       </c>
       <c r="G3" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="47" t="s">
         <v>80</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>81</v>
       </c>
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
@@ -3438,25 +3438,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E4" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="68">
         <v>1</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="45"/>
       <c r="J4" s="45"/>
@@ -3469,25 +3469,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="68">
         <v>1</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I5" s="71"/>
       <c r="J5" s="45"/>
@@ -3500,22 +3500,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F6" s="56">
         <v>1</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="51" t="s">
         <v>35</v>
@@ -3531,13 +3531,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="38">
@@ -3547,7 +3547,7 @@
         <v>36</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
@@ -3753,10 +3753,10 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
@@ -3768,10 +3768,10 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
@@ -3783,10 +3783,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
@@ -3798,10 +3798,10 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
@@ -3813,10 +3813,10 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
@@ -3828,10 +3828,10 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
@@ -3843,10 +3843,10 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
@@ -3858,10 +3858,10 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
@@ -3873,10 +3873,10 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
@@ -3888,10 +3888,10 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
@@ -3903,10 +3903,10 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
@@ -3918,10 +3918,10 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
@@ -3933,10 +3933,10 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
@@ -3948,10 +3948,10 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
     </row>
     <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
@@ -3963,10 +3963,10 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
     </row>
     <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
@@ -3978,10 +3978,10 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
     </row>
     <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
@@ -3993,10 +3993,10 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
     </row>
     <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
@@ -4008,10 +4008,10 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
@@ -4023,10 +4023,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
     </row>
     <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
@@ -4038,10 +4038,10 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
@@ -4053,10 +4053,10 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="37"/>
@@ -4068,10 +4068,10 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -4086,26 +4086,23 @@
     <mergeCell ref="J33:J34"/>
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="L33:L34"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M29:M30"/>
+    <mergeCell ref="M23:M24"/>
     <mergeCell ref="M33:M34"/>
     <mergeCell ref="J35:J36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
     <mergeCell ref="M35:M36"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="M27:M28"/>
     <mergeCell ref="M21:M22"/>
     <mergeCell ref="J23:J24"/>
     <mergeCell ref="K23:K24"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="L21:L22"/>
     <mergeCell ref="J21:J22"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="M29:M30"/>
-    <mergeCell ref="M23:M24"/>
     <mergeCell ref="J41:J42"/>
     <mergeCell ref="K41:K42"/>
     <mergeCell ref="L41:L42"/>
@@ -4119,6 +4116,9 @@
     <mergeCell ref="L39:L40"/>
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="M37:M38"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="L29:L30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4205,25 +4205,25 @@
         <v>1</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="46" t="s">
         <v>116</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>117</v>
       </c>
       <c r="F3" s="38">
         <v>1</v>
       </c>
       <c r="G3" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="47" t="s">
         <v>118</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>119</v>
       </c>
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
@@ -4236,25 +4236,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C4" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D4" s="46" t="s">
-        <v>121</v>
-      </c>
       <c r="E4" s="67" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F4" s="68">
         <v>1</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4" s="45"/>
       <c r="J4" s="45"/>
@@ -4267,25 +4267,25 @@
         <v>3</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D5" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>121</v>
-      </c>
       <c r="E5" s="46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F5" s="68">
         <v>1</v>
       </c>
       <c r="G5" s="45" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I5" s="71"/>
       <c r="J5" s="45"/>
@@ -4298,22 +4298,22 @@
         <v>4</v>
       </c>
       <c r="B6" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="60" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F6" s="59">
         <v>1</v>
       </c>
       <c r="G6" s="51" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H6" s="51" t="s">
         <v>35</v>
@@ -4329,13 +4329,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="46"/>
       <c r="F7" s="38">
@@ -4345,7 +4345,7 @@
         <v>36</v>
       </c>
       <c r="H7" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
@@ -4551,10 +4551,10 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
@@ -4566,10 +4566,10 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
@@ -4581,10 +4581,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
@@ -4596,10 +4596,10 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
@@ -4611,10 +4611,10 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
@@ -4626,10 +4626,10 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
@@ -4641,10 +4641,10 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
@@ -4656,10 +4656,10 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
@@ -4671,10 +4671,10 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
@@ -4686,10 +4686,10 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
@@ -4701,10 +4701,10 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
@@ -4716,10 +4716,10 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
@@ -4731,10 +4731,10 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
@@ -4746,10 +4746,10 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
     </row>
     <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
@@ -4761,10 +4761,10 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
     </row>
     <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
@@ -4776,10 +4776,10 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
     </row>
     <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
@@ -4791,10 +4791,10 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
     </row>
     <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
@@ -4806,10 +4806,10 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
@@ -4821,10 +4821,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
     </row>
     <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
@@ -4836,10 +4836,10 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
@@ -4851,10 +4851,10 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="37"/>
@@ -4866,25 +4866,20 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
     <mergeCell ref="L23:L24"/>
     <mergeCell ref="J31:J32"/>
     <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="K29:K30"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
     <mergeCell ref="J33:J34"/>
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="L33:L34"/>
@@ -4893,14 +4888,19 @@
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
     <mergeCell ref="M35:M36"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M27:M28"/>
     <mergeCell ref="L37:L38"/>
     <mergeCell ref="K39:K40"/>
     <mergeCell ref="L39:L40"/>
     <mergeCell ref="M39:M40"/>
     <mergeCell ref="K21:K22"/>
     <mergeCell ref="L21:L22"/>
+    <mergeCell ref="M37:M38"/>
     <mergeCell ref="J21:J22"/>
     <mergeCell ref="L29:L30"/>
     <mergeCell ref="M29:M30"/>
@@ -5003,23 +5003,23 @@
         <v>1</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C3" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E3" s="46"/>
       <c r="F3" s="38">
         <v>1</v>
       </c>
       <c r="G3" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="H3" s="47" t="s">
         <v>143</v>
-      </c>
-      <c r="H3" s="47" t="s">
-        <v>144</v>
       </c>
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
@@ -5032,23 +5032,23 @@
         <v>2</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="46" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="46" t="s">
         <v>141</v>
-      </c>
-      <c r="D4" s="46" t="s">
-        <v>142</v>
       </c>
       <c r="E4" s="67"/>
       <c r="F4" s="68">
         <v>1</v>
       </c>
       <c r="G4" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H4" s="45" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I4" s="45"/>
       <c r="J4" s="45"/>
@@ -5057,7 +5057,7 @@
       <c r="M4" s="48"/>
     </row>
     <row r="5" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="36"/>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -5072,7 +5072,7 @@
       <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="86"/>
+      <c r="A6" s="73"/>
       <c r="B6" s="36"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -5087,7 +5087,7 @@
       <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="86"/>
+      <c r="A7" s="73"/>
       <c r="B7" s="36"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -5299,10 +5299,10 @@
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
-      <c r="L21" s="83"/>
-      <c r="M21" s="83"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="86"/>
+      <c r="M21" s="86"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
@@ -5314,10 +5314,10 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
-      <c r="J22" s="83"/>
-      <c r="K22" s="83"/>
-      <c r="L22" s="83"/>
-      <c r="M22" s="83"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="86"/>
+      <c r="M22" s="86"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
@@ -5329,10 +5329,10 @@
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
-      <c r="J23" s="83"/>
-      <c r="K23" s="83"/>
-      <c r="L23" s="83"/>
-      <c r="M23" s="83"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="86"/>
+      <c r="M23" s="86"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="37"/>
@@ -5344,10 +5344,10 @@
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
-      <c r="J24" s="83"/>
-      <c r="K24" s="83"/>
-      <c r="L24" s="83"/>
-      <c r="M24" s="83"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="86"/>
+      <c r="L24" s="86"/>
+      <c r="M24" s="86"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
@@ -5359,10 +5359,10 @@
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
-      <c r="J25" s="83"/>
-      <c r="K25" s="83"/>
-      <c r="L25" s="83"/>
-      <c r="M25" s="83"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="86"/>
+      <c r="M25" s="86"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="37"/>
@@ -5374,10 +5374,10 @@
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
-      <c r="J26" s="83"/>
-      <c r="K26" s="83"/>
-      <c r="L26" s="83"/>
-      <c r="M26" s="83"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
     </row>
     <row r="27" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="37"/>
@@ -5389,10 +5389,10 @@
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
-      <c r="J27" s="83"/>
-      <c r="K27" s="83"/>
-      <c r="L27" s="83"/>
-      <c r="M27" s="83"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
     </row>
     <row r="28" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="37"/>
@@ -5404,10 +5404,10 @@
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
-      <c r="M28" s="83"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
     </row>
     <row r="29" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
@@ -5419,10 +5419,10 @@
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
-      <c r="J29" s="83"/>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
-      <c r="M29" s="83"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
     </row>
     <row r="30" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
@@ -5434,10 +5434,10 @@
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
-      <c r="J30" s="83"/>
-      <c r="K30" s="83"/>
-      <c r="L30" s="83"/>
-      <c r="M30" s="83"/>
+      <c r="J30" s="86"/>
+      <c r="K30" s="86"/>
+      <c r="L30" s="86"/>
+      <c r="M30" s="86"/>
     </row>
     <row r="31" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A31" s="37"/>
@@ -5449,10 +5449,10 @@
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
-      <c r="J31" s="83"/>
-      <c r="K31" s="83"/>
-      <c r="L31" s="83"/>
-      <c r="M31" s="83"/>
+      <c r="J31" s="86"/>
+      <c r="K31" s="86"/>
+      <c r="L31" s="86"/>
+      <c r="M31" s="86"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A32" s="37"/>
@@ -5464,10 +5464,10 @@
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
-      <c r="J32" s="83"/>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="83"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="86"/>
+      <c r="L32" s="86"/>
+      <c r="M32" s="86"/>
     </row>
     <row r="33" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A33" s="37"/>
@@ -5479,10 +5479,10 @@
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
-      <c r="J33" s="83"/>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="83"/>
+      <c r="J33" s="86"/>
+      <c r="K33" s="86"/>
+      <c r="L33" s="86"/>
+      <c r="M33" s="86"/>
     </row>
     <row r="34" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A34" s="37"/>
@@ -5494,10 +5494,10 @@
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
-      <c r="J34" s="83"/>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="83"/>
+      <c r="J34" s="86"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="86"/>
+      <c r="M34" s="86"/>
     </row>
     <row r="35" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
@@ -5509,10 +5509,10 @@
       <c r="G35" s="14"/>
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
-      <c r="J35" s="83"/>
-      <c r="K35" s="83"/>
-      <c r="L35" s="83"/>
-      <c r="M35" s="83"/>
+      <c r="J35" s="86"/>
+      <c r="K35" s="86"/>
+      <c r="L35" s="86"/>
+      <c r="M35" s="86"/>
     </row>
     <row r="36" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A36" s="37"/>
@@ -5524,10 +5524,10 @@
       <c r="G36" s="14"/>
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
-      <c r="J36" s="83"/>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="83"/>
+      <c r="J36" s="86"/>
+      <c r="K36" s="86"/>
+      <c r="L36" s="86"/>
+      <c r="M36" s="86"/>
     </row>
     <row r="37" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A37" s="37"/>
@@ -5539,10 +5539,10 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="83"/>
-      <c r="K37" s="83"/>
-      <c r="L37" s="83"/>
-      <c r="M37" s="83"/>
+      <c r="J37" s="86"/>
+      <c r="K37" s="86"/>
+      <c r="L37" s="86"/>
+      <c r="M37" s="86"/>
     </row>
     <row r="38" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A38" s="37"/>
@@ -5554,10 +5554,10 @@
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
-      <c r="J38" s="83"/>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="83"/>
+      <c r="J38" s="86"/>
+      <c r="K38" s="86"/>
+      <c r="L38" s="86"/>
+      <c r="M38" s="86"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A39" s="37"/>
@@ -5569,10 +5569,10 @@
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
-      <c r="J39" s="83"/>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="83"/>
+      <c r="J39" s="86"/>
+      <c r="K39" s="86"/>
+      <c r="L39" s="86"/>
+      <c r="M39" s="86"/>
     </row>
     <row r="40" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
@@ -5584,10 +5584,10 @@
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="83"/>
+      <c r="J40" s="86"/>
+      <c r="K40" s="86"/>
+      <c r="L40" s="86"/>
+      <c r="M40" s="86"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A41" s="37"/>
@@ -5599,10 +5599,10 @@
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
-      <c r="J41" s="83"/>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="83"/>
+      <c r="J41" s="86"/>
+      <c r="K41" s="86"/>
+      <c r="L41" s="86"/>
+      <c r="M41" s="86"/>
     </row>
     <row r="42" spans="1:13" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A42" s="37"/>
@@ -5614,10 +5614,10 @@
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
-      <c r="J42" s="83"/>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="83"/>
+      <c r="J42" s="86"/>
+      <c r="K42" s="86"/>
+      <c r="L42" s="86"/>
+      <c r="M42" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="44">
